--- a/sources/data/_raw/suicide_data_minimal.xlsx
+++ b/sources/data/_raw/suicide_data_minimal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/20191111-veterans/sources/data/_raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/3_urgent/20191111-veterans/sources/data/_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BD5E1C-3E5B-1F47-BB1F-842E20808EBB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E58837C-F833-4E4C-88D3-1DD0E3ECE945}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7280" yWindow="460" windowWidth="33600" windowHeight="19460" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2000" sheetId="1" r:id="rId1"/>
@@ -3755,7 +3755,7 @@
         <v>14278716</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" ref="D34:D65" si="1">B34/C34</f>
+        <f t="shared" ref="D34:D58" si="1">B34/C34</f>
         <v>9.5328179368509042E-2</v>
       </c>
       <c r="E34" s="5"/>
@@ -4933,8 +4933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:U64"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25:T25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8645,8 +8645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:U63"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25:T25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10704,7 +10704,7 @@
         <v>15055513</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" ref="D34:D65" si="1">B34/C34</f>
+        <f t="shared" ref="D34:D58" si="1">B34/C34</f>
         <v>6.3225344762413607E-2</v>
       </c>
       <c r="E34" s="7"/>
@@ -12329,9 +12329,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:U64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M26" sqref="M26"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14309,7 +14309,7 @@
         <v>15160932</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" ref="D34:D65" si="1">B34/C34</f>
+        <f t="shared" ref="D34:D58" si="1">B34/C34</f>
         <v>6.0533283837695469E-2</v>
       </c>
       <c r="E34" s="7"/>
@@ -18242,7 +18242,7 @@
         <v>15160932</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" ref="D34:D65" si="4">B34/C34</f>
+        <f t="shared" ref="D34:D58" si="4">B34/C34</f>
         <v>6.0533283837695469E-2</v>
       </c>
       <c r="E34" s="5">
@@ -18274,7 +18274,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="3" t="e">
-        <f t="shared" ref="L34:L65" si="5">K34/E34</f>
+        <f t="shared" ref="L34:L56" si="5">K34/E34</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M34" s="5">
@@ -23209,7 +23209,7 @@
         <v>15160932</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" ref="D34:D65" si="1">B34/C34</f>
+        <f t="shared" ref="D34:D58" si="1">B34/C34</f>
         <v>6.0533283837695469E-2</v>
       </c>
       <c r="E34">
@@ -27395,7 +27395,7 @@
         <v>15160932</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" ref="E34:E65" si="2">B34/D34</f>
+        <f t="shared" ref="E34:E58" si="2">B34/D34</f>
         <v>6.0533283837695469E-2</v>
       </c>
       <c r="F34" s="5">
@@ -30335,7 +30335,7 @@
         <v>14278716</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" ref="D34:D65" si="1">B34/C34</f>
+        <f t="shared" ref="D34:D58" si="1">B34/C34</f>
         <v>9.5328179368509042E-2</v>
       </c>
       <c r="E34" s="5"/>
@@ -32960,7 +32960,7 @@
         <v>14278716</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" ref="D34:D65" si="1">B34/C34</f>
+        <f t="shared" ref="D34:D58" si="1">B34/C34</f>
         <v>9.5328179368509042E-2</v>
       </c>
       <c r="F34">
@@ -35514,7 +35514,7 @@
         <v>14278716</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" ref="D34:D65" si="1">B34/C34</f>
+        <f t="shared" ref="D34:D58" si="1">B34/C34</f>
         <v>9.5328179368509042E-2</v>
       </c>
       <c r="F34">
@@ -38083,7 +38083,7 @@
         <v>14278716</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" ref="D34:D65" si="1">B34/C34</f>
+        <f t="shared" ref="D34:D58" si="1">B34/C34</f>
         <v>9.5328179368509042E-2</v>
       </c>
       <c r="F34">
@@ -39232,8 +39232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U64"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T25" sqref="S25:T25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -42921,8 +42921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:U64"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25:T25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -44976,7 +44976,7 @@
         <v>14768694</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" ref="D34:D65" si="1">B34/C34</f>
+        <f t="shared" ref="D34:D58" si="1">B34/C34</f>
         <v>7.4398318497221214E-2</v>
       </c>
       <c r="E34" s="7"/>
@@ -46596,8 +46596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:U64"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25:T25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -48653,7 +48653,7 @@
         <v>14790304</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" ref="D34:D65" si="1">B34/C34</f>
+        <f t="shared" ref="D34:D58" si="1">B34/C34</f>
         <v>7.3353664671125085E-2</v>
       </c>
       <c r="E34" s="7"/>
@@ -50280,8 +50280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25:T25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -52353,7 +52353,7 @@
         <v>15051925</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" ref="D34:D65" si="1">B34/C34</f>
+        <f t="shared" ref="D34:D53" si="1">B34/C34</f>
         <v>6.8603982547082845E-2</v>
       </c>
       <c r="E34" s="7"/>
